--- a/renders/PerfAnalysis.xlsx
+++ b/renders/PerfAnalysis.xlsx
@@ -19,12 +19,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>CesiumMilkTruck</t>
   </si>
   <si>
-    <t>InitFrameBuffers</t>
+    <t>Rasterizer</t>
+  </si>
+  <si>
+    <t>Vertex Shader</t>
+  </si>
+  <si>
+    <t>Primitive Assembly</t>
+  </si>
+  <si>
+    <t>Fragment Shader</t>
+  </si>
+  <si>
+    <t>Init. Frame Buffers</t>
+  </si>
+  <si>
+    <t>SobelMapping</t>
+  </si>
+  <si>
+    <t>FrameBuffer Transfer</t>
+  </si>
+  <si>
+    <t>Backface Culling</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>Cow</t>
+  </si>
+  <si>
+    <t>Di</t>
+  </si>
+  <si>
+    <t>Duck</t>
+  </si>
+  <si>
+    <t>NumPrimsBeforeCulling</t>
+  </si>
+  <si>
+    <t>NumPrimsAfterCulling</t>
+  </si>
+  <si>
+    <t>40 FPS</t>
   </si>
 </sst>
 </file>
@@ -376,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B9:E10"/>
+  <dimension ref="B6:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D27" sqref="D27:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,17 +429,224 @@
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="3" width="9.140625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>0</v>
+      </c>
+      <c r="E10">
+        <v>5.5</v>
+      </c>
+      <c r="F10">
+        <v>0.35</v>
+      </c>
+      <c r="G10">
+        <v>0.45</v>
+      </c>
+      <c r="H10">
+        <v>1.5</v>
+      </c>
+      <c r="I10">
+        <v>150</v>
+      </c>
+      <c r="J10">
+        <v>1.95</v>
+      </c>
+      <c r="K10">
+        <v>3.65</v>
+      </c>
+      <c r="L10">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>5.5</v>
+      </c>
+      <c r="F11">
+        <v>0.1</v>
+      </c>
+      <c r="G11">
+        <v>0.3</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>3.6</v>
+      </c>
+      <c r="J11">
+        <v>1.95</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>5.5</v>
+      </c>
+      <c r="F12">
+        <v>0.15</v>
+      </c>
+      <c r="G12">
+        <v>0.35</v>
+      </c>
+      <c r="H12">
+        <v>2.5</v>
+      </c>
+      <c r="I12">
+        <v>52.5</v>
+      </c>
+      <c r="J12">
+        <v>1.95</v>
+      </c>
+      <c r="K12">
+        <v>3.1</v>
+      </c>
+      <c r="L12">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>5.5</v>
+      </c>
+      <c r="F13">
+        <v>0.1</v>
+      </c>
+      <c r="G13">
+        <v>0.35</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>5.8</v>
+      </c>
+      <c r="J13">
+        <v>1.95</v>
+      </c>
+      <c r="K13">
+        <v>3.28</v>
+      </c>
+      <c r="L13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>3624</v>
+      </c>
+      <c r="F25">
+        <v>5.5</v>
+      </c>
+      <c r="G25">
+        <v>1717</v>
+      </c>
+      <c r="H25">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>5804</v>
+      </c>
+      <c r="F26">
+        <v>44</v>
+      </c>
+      <c r="G26">
+        <v>2549</v>
+      </c>
+      <c r="H26">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>4212</v>
+      </c>
+      <c r="F27">
+        <v>35.5</v>
+      </c>
+      <c r="G27">
+        <v>1735</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
